--- a/output/fit_clients/fit_round_412.xlsx
+++ b/output/fit_clients/fit_round_412.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2309561891.531502</v>
+        <v>1728555875.409467</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07993888759859262</v>
+        <v>0.07137975828621872</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02970231731721154</v>
+        <v>0.03217159556104331</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1154780983.090225</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2013330774.913452</v>
+        <v>2382371284.165639</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1740871837939285</v>
+        <v>0.157342627618868</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03418312372700084</v>
+        <v>0.04579019400580693</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1006665429.595946</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4734726760.443282</v>
+        <v>3647508996.585263</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1411521540522433</v>
+        <v>0.1656814187315626</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02581018754813273</v>
+        <v>0.03458347398963516</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>149</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2367363446.461028</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2847471838.79504</v>
+        <v>4152096576.61211</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1070884898761379</v>
+        <v>0.07761839617187466</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03650890283075155</v>
+        <v>0.03760667748422311</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>152</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1423735999.386282</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2182399265.914324</v>
+        <v>2269558502.945142</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09820297079739414</v>
+        <v>0.09028846343690551</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0566652597188403</v>
+        <v>0.03605508482381518</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1091199642.825494</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2207747848.619359</v>
+        <v>2567754690.018382</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09656675067265789</v>
+        <v>0.07778188721957713</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03373205762088037</v>
+        <v>0.03432440971169824</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>130</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1103873965.45239</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3081367190.380769</v>
+        <v>3078862876.024296</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2184201358842497</v>
+        <v>0.1849561406173613</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03186043693820091</v>
+        <v>0.03352306055942484</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>131</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1540683661.037713</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2189655833.256484</v>
+        <v>1896258764.957811</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1666687540729411</v>
+        <v>0.1784198795166848</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03575411526905788</v>
+        <v>0.0279575862862369</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1094827916.945314</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4794184047.487396</v>
+        <v>3789861654.491026</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1617191785610839</v>
+        <v>0.1497689542057102</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04486465076228865</v>
+        <v>0.04075828844677434</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>173</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2397092107.1151</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3142207540.675132</v>
+        <v>3887702343.780796</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1198592582729637</v>
+        <v>0.1494259189326761</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03579626415278523</v>
+        <v>0.03490174526357622</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>170</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1571103723.258472</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3036791472.427805</v>
+        <v>2583480145.766062</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1723957984362905</v>
+        <v>0.1576989372691986</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05134495048447896</v>
+        <v>0.04913633183560232</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>139</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1518395757.61296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3994634925.615638</v>
+        <v>3267875288.973594</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0739791309051398</v>
+        <v>0.07406217124154423</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02961019299002227</v>
+        <v>0.03100830781872379</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>138</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1997317518.024711</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3033830857.855681</v>
+        <v>3105898808.212592</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1856594486204337</v>
+        <v>0.1344791061561763</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0368487297399812</v>
+        <v>0.04276612007730118</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>135</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1516915460.935292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1746805307.729123</v>
+        <v>1252448709.677794</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1012400145396028</v>
+        <v>0.06719851040392012</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04787856057554044</v>
+        <v>0.04150813481169505</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>873402795.3403456</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2447715544.726202</v>
+        <v>2120142411.196059</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09207157344702908</v>
+        <v>0.1010106027632583</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0483505148257833</v>
+        <v>0.03502955867399164</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>84</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1223857807.869061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5049152748.88639</v>
+        <v>4449115413.627061</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1092276110964835</v>
+        <v>0.161252997335437</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03821036183112075</v>
+        <v>0.03683842562300832</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>120</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2524576357.209478</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2941210175.876402</v>
+        <v>2762590162.472823</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1170013679405369</v>
+        <v>0.1853575430814865</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03242714417623945</v>
+        <v>0.02740748218137901</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>135</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1470605122.430415</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1226407431.080529</v>
+        <v>918080021.0505232</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1797726727302512</v>
+        <v>0.1730510009667069</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02744636397386994</v>
+        <v>0.02204202653437384</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>613203799.8922935</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2666733600.736088</v>
+        <v>2727082409.25041</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1064785700889417</v>
+        <v>0.1268495790390599</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01964467483642441</v>
+        <v>0.0286918851208524</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>55</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1333366755.710427</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2008664633.879275</v>
+        <v>2170749440.875713</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08043605087735961</v>
+        <v>0.09449007635155732</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04451809778190374</v>
+        <v>0.03360996699079691</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1004332352.055027</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3251674775.901813</v>
+        <v>3060991283.947074</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1426585310683159</v>
+        <v>0.1270530334098319</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0530304375526969</v>
+        <v>0.03668224461962081</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>116</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1625837434.428555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1547888617.913981</v>
+        <v>1277876329.088241</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1246908256042639</v>
+        <v>0.1220399676769555</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03925516436635035</v>
+        <v>0.04875716052407812</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>773944286.8410932</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3711881201.544673</v>
+        <v>4007909781.267831</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1282053293379962</v>
+        <v>0.1030222721309277</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02438092878542109</v>
+        <v>0.03665964115112789</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>121</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1855940588.158141</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1107640552.197694</v>
+        <v>972748546.6112926</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1001056284547371</v>
+        <v>0.1207232702573025</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02163957318963103</v>
+        <v>0.02910071944937416</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>553820315.3246441</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1011803657.939178</v>
+        <v>1214747585.982172</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09589877248601945</v>
+        <v>0.07980061199584236</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02473922121575775</v>
+        <v>0.02516625095770753</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>505901803.9647933</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4631800682.075026</v>
+        <v>4552403096.023892</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1075216849451332</v>
+        <v>0.1147060159237806</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02589280885647464</v>
+        <v>0.02683452830261204</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2315900319.802301</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2822838343.300364</v>
+        <v>2962414585.387728</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1258437005005696</v>
+        <v>0.09853361259037645</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03191413369102677</v>
+        <v>0.04533667270414563</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1411419167.513347</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4147816456.538139</v>
+        <v>5318235286.282486</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1213842205387073</v>
+        <v>0.1461969013341335</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0326872686830082</v>
+        <v>0.03649425012527921</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>182</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2073908234.857775</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1918434433.537763</v>
+        <v>2279691364.748666</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08696515785361668</v>
+        <v>0.1047174096512683</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03259421570827079</v>
+        <v>0.03728359065708163</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>959217244.9851207</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>922256011.6101874</v>
+        <v>1059392287.043695</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1121228459084416</v>
+        <v>0.08479470336771538</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05091836137702294</v>
+        <v>0.03672748188426558</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>461128022.6501055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1536615629.037748</v>
+        <v>1272437618.057509</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09366967039866392</v>
+        <v>0.1143642825235342</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03308654350402366</v>
+        <v>0.02654173450152384</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>768307890.4672838</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2329031438.549113</v>
+        <v>2680286757.394443</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1662523861591896</v>
+        <v>0.1635986171259941</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05448014947698081</v>
+        <v>0.04075885902557621</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>124</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1164515772.060688</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1441356949.904696</v>
+        <v>1072596019.78668</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1002037945501394</v>
+        <v>0.07983463959309688</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02418565522484012</v>
+        <v>0.02187670935138894</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>720678440.4448973</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1233530590.18031</v>
+        <v>1330463870.633747</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1024203640178869</v>
+        <v>0.1058504026245071</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03971801428149422</v>
+        <v>0.03400496530419728</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>616765262.4690853</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2547118052.723828</v>
+        <v>2886499119.93885</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1203963696824378</v>
+        <v>0.1209888110633985</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02100558310229584</v>
+        <v>0.02090870105089102</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>104</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1273559044.58066</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1805020349.62751</v>
+        <v>2780801851.89015</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07704118437682674</v>
+        <v>0.09799778876585573</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03808034194165363</v>
+        <v>0.03464166178366671</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>111</v>
-      </c>
-      <c r="J37" t="n">
-        <v>902510175.2765609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2136090869.306643</v>
+        <v>1416315412.261523</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1101970312073812</v>
+        <v>0.1167986676754346</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03201807123129266</v>
+        <v>0.02896755716628844</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1068045394.06798</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1632989256.846431</v>
+        <v>1737509050.242149</v>
       </c>
       <c r="F39" t="n">
-        <v>0.178563378302702</v>
+        <v>0.1202487386789759</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03255563717311699</v>
+        <v>0.03038281479356347</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>816494678.7194457</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1374276297.506483</v>
+        <v>1656698862.751834</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1347223994839382</v>
+        <v>0.1289039707901805</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05173518114248277</v>
+        <v>0.04345584799977511</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>687138146.4347433</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2118898673.592258</v>
+        <v>2185269516.029188</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1350371852930923</v>
+        <v>0.155925421620629</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04724366137985754</v>
+        <v>0.02955114651449811</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1059449399.362707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2702371945.666189</v>
+        <v>3258859001.499855</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0870568800957835</v>
+        <v>0.1191823027821801</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03260019131398774</v>
+        <v>0.03501894190092425</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1351185912.827864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2010240077.449188</v>
+        <v>2661672792.487761</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1850155385703111</v>
+        <v>0.1617224757051034</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0172417105839341</v>
+        <v>0.02164734804886692</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>143</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1005120136.660632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1949281112.301452</v>
+        <v>2156474466.033613</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08722217543426947</v>
+        <v>0.09143828845419834</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03176255932224128</v>
+        <v>0.03493652602620908</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>974640652.3822418</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1569973159.887754</v>
+        <v>2016731286.897585</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1746557126660008</v>
+        <v>0.176409059567312</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04423866732038009</v>
+        <v>0.04498688908855398</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>784986527.522705</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3536201982.598734</v>
+        <v>5713797202.826682</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1110039572411178</v>
+        <v>0.1259347729070797</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04287148306304379</v>
+        <v>0.05230893690868334</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>146</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1768100934.279975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3265463400.805262</v>
+        <v>5115935670.921576</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1339475894597356</v>
+        <v>0.1499968133039721</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04626390584100185</v>
+        <v>0.04610388141970904</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>110</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1632731657.911447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3556441169.073431</v>
+        <v>3827358644.43927</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1027561402660602</v>
+        <v>0.07012641320345592</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03060771269679307</v>
+        <v>0.03434750345030419</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>136</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1778220644.680314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1609287989.637328</v>
+        <v>1866460466.593713</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1748356463961684</v>
+        <v>0.1838327970749216</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04090824973321152</v>
+        <v>0.03974720386373933</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>804644009.8758146</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2572937269.910613</v>
+        <v>2599798496.818882</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1543085019469</v>
+        <v>0.1378018952375971</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03342560236841999</v>
+        <v>0.03779509117750674</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>141</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1286468725.174017</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1497978835.745563</v>
+        <v>1264595143.840333</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1679575654113108</v>
+        <v>0.1672604602179172</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03784612526293277</v>
+        <v>0.04674452480164952</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>748989421.1468654</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5309881143.61813</v>
+        <v>3551560413.994672</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1284585565217621</v>
+        <v>0.1271804959260797</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05860452708587482</v>
+        <v>0.04239536776468688</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>169</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2654940551.211989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3300807668.790419</v>
+        <v>2437041798.178281</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1788650930576583</v>
+        <v>0.1238376545638643</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03548082131881781</v>
+        <v>0.02665090888790195</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>118</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1650403846.096693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4878095565.266349</v>
+        <v>3823291376.3857</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1668376315795752</v>
+        <v>0.1061276384964027</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04132275553969102</v>
+        <v>0.04406212244350109</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>135</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2439047915.684625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3802753914.163945</v>
+        <v>3284448335.591628</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1755412701709137</v>
+        <v>0.2196198468752932</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02171067084176302</v>
+        <v>0.02100272029771532</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1901376923.289545</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1535725728.125709</v>
+        <v>1324799495.224302</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1460287879834846</v>
+        <v>0.1607368450353181</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04450228066713781</v>
+        <v>0.05443259960027108</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>767862901.0404285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3534802013.542064</v>
+        <v>3390721377.031387</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1534159164880966</v>
+        <v>0.1207569848709347</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02246919178244192</v>
+        <v>0.02588668445432156</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>130</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1767401056.0945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1625576240.140073</v>
+        <v>1826580797.043038</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1486060568498538</v>
+        <v>0.1902161767213107</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03706656697046854</v>
+        <v>0.03169929512029996</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>812788139.7633148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3450958913.876163</v>
+        <v>3764767666.636828</v>
       </c>
       <c r="F59" t="n">
-        <v>0.128398263967768</v>
+        <v>0.08689436011102021</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04996540072149317</v>
+        <v>0.04489855397044041</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>116</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1725479459.389705</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2964447030.42051</v>
+        <v>3679233947.312292</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1766555490048525</v>
+        <v>0.1509648589209612</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02888288232235725</v>
+        <v>0.03243890202700078</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>128</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1482223581.846041</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3354851970.265441</v>
+        <v>3115196972.768294</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1380205087525779</v>
+        <v>0.1576219671238949</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03121663389376547</v>
+        <v>0.03047702960830062</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>141</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1677425932.152119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1951215157.557422</v>
+        <v>1299724259.102176</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1637101822559006</v>
+        <v>0.1506786081971235</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03300346334889633</v>
+        <v>0.04535493497808914</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>975607629.5155135</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3419621786.993745</v>
+        <v>5560972225.518575</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1016573244651496</v>
+        <v>0.0684051448004072</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02904012581431038</v>
+        <v>0.03629977351870661</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1709810981.821001</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3783778435.643445</v>
+        <v>4669616832.081991</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1363768951487205</v>
+        <v>0.1695737791833709</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02313989065662571</v>
+        <v>0.02186198434131286</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>129</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1891889238.491582</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5955944593.305186</v>
+        <v>5977938258.661485</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1149478125317689</v>
+        <v>0.1431450227486891</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02894080033796273</v>
+        <v>0.03035006308979041</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>147</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2977972198.532338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5483941588.726334</v>
+        <v>4928140702.429995</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1569789456675461</v>
+        <v>0.1507879391891208</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03600275651198764</v>
+        <v>0.04118106388192833</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>120</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2741970847.504762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2836417063.354647</v>
+        <v>3135370399.615604</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08057071499125258</v>
+        <v>0.07763547161206313</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04092107138340328</v>
+        <v>0.03131547540609854</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>132</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1418208563.774451</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4054517126.230245</v>
+        <v>3937877639.96032</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147802363699361</v>
+        <v>0.146727048908833</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03915585782370792</v>
+        <v>0.04611671503285691</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2027258562.218342</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1900406723.439337</v>
+        <v>2386868608.209853</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1342998560819443</v>
+        <v>0.1813810162009813</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06000214582327174</v>
+        <v>0.0499176759336404</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>950203353.7921941</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3074394448.915888</v>
+        <v>2496400727.455398</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08411522265859087</v>
+        <v>0.101389556496917</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0387877353537294</v>
+        <v>0.04831876175826656</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>118</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1537197206.315095</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3667843179.309439</v>
+        <v>4610309300.611743</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1356974679396146</v>
+        <v>0.1505328003788065</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03177340660009662</v>
+        <v>0.02431667008314638</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>150</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1833921595.899418</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1901541108.133483</v>
+        <v>1688624292.485479</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09087688856253116</v>
+        <v>0.06988726868277692</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05113224734253233</v>
+        <v>0.04167089192862175</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>950770516.3240925</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2506755587.106942</v>
+        <v>2384207784.691864</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08873071640281494</v>
+        <v>0.109639612354295</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05080068017165744</v>
+        <v>0.04590114849820395</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>156</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1253377834.726649</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3004781464.41447</v>
+        <v>2787771793.576884</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1469271385931744</v>
+        <v>0.1303846664473106</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02541057002932473</v>
+        <v>0.02923887148253303</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>140</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1502390797.229017</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1936125199.161663</v>
+        <v>2411078521.859132</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1614471676082006</v>
+        <v>0.1571788895954186</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02929311879151038</v>
+        <v>0.02843381126500173</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>968062569.7191776</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4479028361.32566</v>
+        <v>4755952693.697607</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1078339188309779</v>
+        <v>0.1199992523079207</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03052429392448118</v>
+        <v>0.02855795827059148</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2239514185.454591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1841961623.528145</v>
+        <v>1708520479.980981</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1833289572042219</v>
+        <v>0.1135761895376076</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03005753000775503</v>
+        <v>0.0218713532677065</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>920980849.9583994</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4470766129.418041</v>
+        <v>4302311957.627258</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1020466415124753</v>
+        <v>0.1016764897184484</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03539751027354357</v>
+        <v>0.05528416599457409</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>143</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2235382996.743601</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1173949759.266435</v>
+        <v>1641062732.283979</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1316887233315536</v>
+        <v>0.1290193180946158</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03476609909585589</v>
+        <v>0.03799606948802321</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>586974856.842427</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4128310078.060383</v>
+        <v>4453073486.006398</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0827926886643712</v>
+        <v>0.07689574422473576</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02460171924092764</v>
+        <v>0.03330350284496359</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>89</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2064155044.886833</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4733084544.960384</v>
+        <v>5037739981.596451</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1238619989991443</v>
+        <v>0.1031543729062856</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02888097818261951</v>
+        <v>0.03255495778334132</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>96</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2366542262.922724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5132329187.638801</v>
+        <v>4940392342.413639</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2009054123552426</v>
+        <v>0.1479876277249956</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01791836864653415</v>
+        <v>0.02408031786264423</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>144</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2566164570.3834</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2267670186.013255</v>
+        <v>1665196729.749426</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1051707908230776</v>
+        <v>0.1095671390338658</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04244632466409332</v>
+        <v>0.03955862856608597</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1133835111.616248</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2176841907.867433</v>
+        <v>1661481402.297057</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0826327515503151</v>
+        <v>0.1140027975472137</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04917088042158405</v>
+        <v>0.04883330167026619</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1088420933.032425</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3443756379.862658</v>
+        <v>3420245553.660142</v>
       </c>
       <c r="F85" t="n">
-        <v>0.115979032756541</v>
+        <v>0.1379509209423682</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04236156726966749</v>
+        <v>0.05390854372188131</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>155</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1721878299.090472</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2285270483.359556</v>
+        <v>2640369655.630517</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1600061126151333</v>
+        <v>0.1333099827387036</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02169550265722392</v>
+        <v>0.02407247003864934</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1142635308.977848</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1432632910.118949</v>
+        <v>1314646643.770707</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1675221556190874</v>
+        <v>0.1387108462943415</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03690840949052512</v>
+        <v>0.0402236719676702</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>716316570.2849946</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3736059153.001978</v>
+        <v>2353572297.400362</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1504584738983761</v>
+        <v>0.1380731858495667</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03468891156829367</v>
+        <v>0.03014683252082664</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>163</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1868029679.697744</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2475374075.578634</v>
+        <v>2816805017.154701</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1481732951499495</v>
+        <v>0.1255973873815992</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0328178757203188</v>
+        <v>0.02829344451689129</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>139</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1237687114.385453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1603743068.695272</v>
+        <v>1487724583.750133</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1359161625027776</v>
+        <v>0.0941105675909374</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04819410310261167</v>
+        <v>0.05525959197233379</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>801871532.0654653</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1468154631.277454</v>
+        <v>1975654068.949077</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1834156883163884</v>
+        <v>0.1749994435339745</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05633890860103814</v>
+        <v>0.05568783105478851</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>734077358.8053862</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2589682111.041632</v>
+        <v>2382243069.397964</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1072568601322668</v>
+        <v>0.1054987221742027</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03778004718324572</v>
+        <v>0.0288357976341652</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>119</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1294841046.272032</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4799833752.214669</v>
+        <v>3593729464.289039</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1257869722806167</v>
+        <v>0.1071072108828114</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05066411004452293</v>
+        <v>0.04285918241773361</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2399916825.030505</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1572278831.402755</v>
+        <v>2124302331.005215</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1640177230933734</v>
+        <v>0.1231831136342846</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03881524136897838</v>
+        <v>0.03788149154488398</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>786139358.456123</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3002747218.780041</v>
+        <v>2763533603.626663</v>
       </c>
       <c r="F95" t="n">
-        <v>0.128215953927868</v>
+        <v>0.09431125568851562</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04980962056739578</v>
+        <v>0.03480487033972451</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>99</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1501373608.941724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1600627148.638255</v>
+        <v>2101167682.717232</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09634067745426535</v>
+        <v>0.09164388655470362</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03168874718292623</v>
+        <v>0.03556303207790589</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>800313603.9398153</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4317560645.584711</v>
+        <v>3509702269.421638</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1604846495240709</v>
+        <v>0.1489130509234731</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02028494484055789</v>
+        <v>0.02712542319541037</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>132</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2158780404.718493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2726092411.054095</v>
+        <v>3438951024.006274</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09533712620898928</v>
+        <v>0.08853420110836339</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02228451843275396</v>
+        <v>0.02749613006741379</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1363046171.646248</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2843829880.056334</v>
+        <v>3141646746.27126</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1451323927891104</v>
+        <v>0.111455837454643</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03191674836643086</v>
+        <v>0.02615023880192534</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>129</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1421914914.68646</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4777725406.091018</v>
+        <v>3994830733.545249</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1563560276805165</v>
+        <v>0.1136094733130582</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02441291981719639</v>
+        <v>0.01979413292492771</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>128</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2388862835.822163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3316698902.530936</v>
+        <v>2800932638.692419</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1585252667448771</v>
+        <v>0.1417082647224793</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04884360807758818</v>
+        <v>0.04289959663259313</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>166</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1658349582.176686</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_412.xlsx
+++ b/output/fit_clients/fit_round_412.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1728555875.409467</v>
+        <v>2035313806.028793</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07137975828621872</v>
+        <v>0.0842067368417973</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03217159556104331</v>
+        <v>0.04226443319093149</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2382371284.165639</v>
+        <v>2439703425.827643</v>
       </c>
       <c r="F3" t="n">
-        <v>0.157342627618868</v>
+        <v>0.1434229487980228</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04579019400580693</v>
+        <v>0.03787893778526719</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3647508996.585263</v>
+        <v>4108968810.351408</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1656814187315626</v>
+        <v>0.1141505629145344</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03458347398963516</v>
+        <v>0.0377920289339289</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4152096576.61211</v>
+        <v>2890996124.091621</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07761839617187466</v>
+        <v>0.08396108435380255</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03760667748422311</v>
+        <v>0.04556227810268012</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2269558502.945142</v>
+        <v>2180074121.514256</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09028846343690551</v>
+        <v>0.1169871818220199</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03605508482381518</v>
+        <v>0.04683238227654404</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2567754690.018382</v>
+        <v>2053191050.451578</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07778188721957713</v>
+        <v>0.06771595910235503</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03432440971169824</v>
+        <v>0.04522668619325582</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3078862876.024296</v>
+        <v>2642056140.846754</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1849561406173613</v>
+        <v>0.1778394581752408</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03352306055942484</v>
+        <v>0.02109998042769605</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1896258764.957811</v>
+        <v>2314086956.330728</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1784198795166848</v>
+        <v>0.1284933549065586</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0279575862862369</v>
+        <v>0.0256768121425051</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3789861654.491026</v>
+        <v>4536946018.477434</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1497689542057102</v>
+        <v>0.2109388891107156</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04075828844677434</v>
+        <v>0.05202005624223999</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3887702343.780796</v>
+        <v>4102301063.486672</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1494259189326761</v>
+        <v>0.1649589226342622</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03490174526357622</v>
+        <v>0.04324649917721508</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2583480145.766062</v>
+        <v>2168649273.34112</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1576989372691986</v>
+        <v>0.1449854102308814</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04913633183560232</v>
+        <v>0.05064358995982361</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3267875288.973594</v>
+        <v>5034328208.185822</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07406217124154423</v>
+        <v>0.06146764538219697</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03100830781872379</v>
+        <v>0.01922511916987056</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3105898808.212592</v>
+        <v>2613873721.859056</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1344791061561763</v>
+        <v>0.1844402255386954</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04276612007730118</v>
+        <v>0.03915941792633319</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1252448709.677794</v>
+        <v>1690323847.696535</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06719851040392012</v>
+        <v>0.1049259705053436</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04150813481169505</v>
+        <v>0.04852983728267346</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2120142411.196059</v>
+        <v>2713227901.555752</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1010106027632583</v>
+        <v>0.0865536200702917</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03502955867399164</v>
+        <v>0.03698030269175587</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4449115413.627061</v>
+        <v>4682906734.8311</v>
       </c>
       <c r="F17" t="n">
-        <v>0.161252997335437</v>
+        <v>0.1452963082219374</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03683842562300832</v>
+        <v>0.04301695897028501</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2762590162.472823</v>
+        <v>2688905950.571246</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1853575430814865</v>
+        <v>0.160049370370146</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02740748218137901</v>
+        <v>0.03160352275947372</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>918080021.0505232</v>
+        <v>946881659.3678606</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1730510009667069</v>
+        <v>0.115566058885657</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02204202653437384</v>
+        <v>0.02395576521032093</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2727082409.25041</v>
+        <v>2216884784.158748</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1268495790390599</v>
+        <v>0.1081003348659597</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0286918851208524</v>
+        <v>0.03003323121659441</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2170749440.875713</v>
+        <v>2354907854.440521</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09449007635155732</v>
+        <v>0.09950747471602471</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03360996699079691</v>
+        <v>0.04357044828329276</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3060991283.947074</v>
+        <v>3423556624.803558</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1270530334098319</v>
+        <v>0.099635001938461</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03668224461962081</v>
+        <v>0.04830229117621002</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1277876329.088241</v>
+        <v>1152683315.826067</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1220399676769555</v>
+        <v>0.1682660973057452</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04875716052407812</v>
+        <v>0.03491941067626069</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4007909781.267831</v>
+        <v>3564124693.377377</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1030222721309277</v>
+        <v>0.111780013097367</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03665964115112789</v>
+        <v>0.03551051289378905</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>972748546.6112926</v>
+        <v>983215061.8277791</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1207232702573025</v>
+        <v>0.1112185475557341</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02910071944937416</v>
+        <v>0.02656275088330892</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1214747585.982172</v>
+        <v>1318652346.235396</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07980061199584236</v>
+        <v>0.1055847883233212</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02516625095770753</v>
+        <v>0.03012553078404632</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4552403096.023892</v>
+        <v>3178152960.443733</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1147060159237806</v>
+        <v>0.1012603434891124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02683452830261204</v>
+        <v>0.02293931095069984</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2962414585.387728</v>
+        <v>3056073638.412621</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09853361259037645</v>
+        <v>0.1121340201411492</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04533667270414563</v>
+        <v>0.04651564138025572</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5318235286.282486</v>
+        <v>3708619189.697242</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1461969013341335</v>
+        <v>0.1402639356652783</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03649425012527921</v>
+        <v>0.03465485290580299</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2279691364.748666</v>
+        <v>1959486100.048761</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1047174096512683</v>
+        <v>0.1124959012846095</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03728359065708163</v>
+        <v>0.0287085826088066</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1059392287.043695</v>
+        <v>988463605.1124175</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08479470336771538</v>
+        <v>0.06876206749292603</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03672748188426558</v>
+        <v>0.04443637383000205</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1272437618.057509</v>
+        <v>1281479739.681571</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1143642825235342</v>
+        <v>0.0944770186812886</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02654173450152384</v>
+        <v>0.03630935953463634</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2680286757.394443</v>
+        <v>2235563221.439395</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1635986171259941</v>
+        <v>0.1889465170103414</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04075885902557621</v>
+        <v>0.04129406118703589</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1072596019.78668</v>
+        <v>1287456823.53254</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07983463959309688</v>
+        <v>0.1060872767609855</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02187670935138894</v>
+        <v>0.02474830592627875</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1330463870.633747</v>
+        <v>1153957959.356972</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1058504026245071</v>
+        <v>0.09176668373826792</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03400496530419728</v>
+        <v>0.03998666804490287</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2886499119.93885</v>
+        <v>3032765214.754144</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1209888110633985</v>
+        <v>0.1383478323017665</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02090870105089102</v>
+        <v>0.02466726301216746</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2780801851.89015</v>
+        <v>1958827845.038206</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09799778876585573</v>
+        <v>0.1042389463979486</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03464166178366671</v>
+        <v>0.0418143133905562</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1416315412.261523</v>
+        <v>1340526378.076441</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1167986676754346</v>
+        <v>0.09292568314869179</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02896755716628844</v>
+        <v>0.03024250279361495</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1737509050.242149</v>
+        <v>2018568474.624525</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1202487386789759</v>
+        <v>0.1944774568067006</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03038281479356347</v>
+        <v>0.02020006147593282</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1656698862.751834</v>
+        <v>1670768743.286651</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1289039707901805</v>
+        <v>0.1405988348817663</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04345584799977511</v>
+        <v>0.0497647593915321</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2185269516.029188</v>
+        <v>2511365565.859033</v>
       </c>
       <c r="F41" t="n">
-        <v>0.155925421620629</v>
+        <v>0.1626135020209507</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02955114651449811</v>
+        <v>0.03830485759183224</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3258859001.499855</v>
+        <v>4001340644.695728</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1191823027821801</v>
+        <v>0.1048479585420779</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03501894190092425</v>
+        <v>0.02836555472937817</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2661672792.487761</v>
+        <v>2971673177.518153</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1617224757051034</v>
+        <v>0.1494757961254526</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02164734804886692</v>
+        <v>0.01732354905942762</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2156474466.033613</v>
+        <v>1628748978.233298</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09143828845419834</v>
+        <v>0.09563003842928224</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03493652602620908</v>
+        <v>0.0237935022103788</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2016731286.897585</v>
+        <v>1976559229.38296</v>
       </c>
       <c r="F45" t="n">
-        <v>0.176409059567312</v>
+        <v>0.1628917261250384</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04498688908855398</v>
+        <v>0.05372669494631009</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5713797202.826682</v>
+        <v>5362705498.508606</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1259347729070797</v>
+        <v>0.1428859478085572</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05230893690868334</v>
+        <v>0.05179542399413922</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5115935670.921576</v>
+        <v>3809078951.94826</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1499968133039721</v>
+        <v>0.1267661462499876</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04610388141970904</v>
+        <v>0.04780894375521188</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3827358644.43927</v>
+        <v>3283452911.421936</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07012641320345592</v>
+        <v>0.09576113036168461</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03434750345030419</v>
+        <v>0.03396206346995014</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1866460466.593713</v>
+        <v>1903473193.366766</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1838327970749216</v>
+        <v>0.1786968901725711</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03974720386373933</v>
+        <v>0.041449998023735</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2599798496.818882</v>
+        <v>2609460704.490093</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1378018952375971</v>
+        <v>0.1410791613407535</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03779509117750674</v>
+        <v>0.05143781170631968</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1264595143.840333</v>
+        <v>1530540068.68894</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1672604602179172</v>
+        <v>0.1298182758096225</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04674452480164952</v>
+        <v>0.04142851191369359</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3551560413.994672</v>
+        <v>4013300541.083852</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1271804959260797</v>
+        <v>0.1088222370933529</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04239536776468688</v>
+        <v>0.04421660908697247</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2437041798.178281</v>
+        <v>3563808021.606972</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1238376545638643</v>
+        <v>0.1499730121232683</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02665090888790195</v>
+        <v>0.03232318570860543</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3823291376.3857</v>
+        <v>4906434674.054296</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1061276384964027</v>
+        <v>0.1536566669613309</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04406212244350109</v>
+        <v>0.0531021573390645</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3284448335.591628</v>
+        <v>4116603848.783525</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2196198468752932</v>
+        <v>0.2081444255430143</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02100272029771532</v>
+        <v>0.02864291667764071</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1324799495.224302</v>
+        <v>1746960599.077412</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1607368450353181</v>
+        <v>0.1539436429552511</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05443259960027108</v>
+        <v>0.03688536437385549</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3390721377.031387</v>
+        <v>4045289857.950002</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1207569848709347</v>
+        <v>0.1439532882347732</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02588668445432156</v>
+        <v>0.02607074768046283</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1826580797.043038</v>
+        <v>1529070632.44343</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1902161767213107</v>
+        <v>0.1355679188545194</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03169929512029996</v>
+        <v>0.03534853920055329</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3764767666.636828</v>
+        <v>4327233768.7305</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08689436011102021</v>
+        <v>0.08352622078112867</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04489855397044041</v>
+        <v>0.04912353325329305</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3679233947.312292</v>
+        <v>2787174045.877541</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1509648589209612</v>
+        <v>0.1791306195511027</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03243890202700078</v>
+        <v>0.0265014803715218</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3115196972.768294</v>
+        <v>2168743696.476139</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1576219671238949</v>
+        <v>0.1273728313788501</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03047702960830062</v>
+        <v>0.0261576619892216</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1299724259.102176</v>
+        <v>1848206518.901327</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1506786081971235</v>
+        <v>0.1308126727810071</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04535493497808914</v>
+        <v>0.03880019121990055</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5560972225.518575</v>
+        <v>3744978364.558321</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0684051448004072</v>
+        <v>0.07385554786701011</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03629977351870661</v>
+        <v>0.0352520103089663</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4669616832.081991</v>
+        <v>3561359561.790432</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1695737791833709</v>
+        <v>0.142686315438247</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02186198434131286</v>
+        <v>0.02338362392324419</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5977938258.661485</v>
+        <v>5651892735.911766</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1431450227486891</v>
+        <v>0.1709749359192433</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03035006308979041</v>
+        <v>0.02076568932832659</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4928140702.429995</v>
+        <v>5527977501.030177</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1507879391891208</v>
+        <v>0.1048934179447723</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04118106388192833</v>
+        <v>0.04621937008473764</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3135370399.615604</v>
+        <v>3504749950.492261</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07763547161206313</v>
+        <v>0.09447807895756349</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03131547540609854</v>
+        <v>0.04788412808438714</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3937877639.96032</v>
+        <v>4677869868.959167</v>
       </c>
       <c r="F68" t="n">
-        <v>0.146727048908833</v>
+        <v>0.120216998343881</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04611671503285691</v>
+        <v>0.04507622530508525</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2386868608.209853</v>
+        <v>1610149835.814486</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1813810162009813</v>
+        <v>0.1687639519258</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0499176759336404</v>
+        <v>0.04254311794632741</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2496400727.455398</v>
+        <v>3507779083.850641</v>
       </c>
       <c r="F70" t="n">
-        <v>0.101389556496917</v>
+        <v>0.07085444593545402</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04831876175826656</v>
+        <v>0.03650891584341746</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4610309300.611743</v>
+        <v>3687495436.527953</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1505328003788065</v>
+        <v>0.1273049355919974</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02431667008314638</v>
+        <v>0.03016909995869589</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1688624292.485479</v>
+        <v>1376062748.965022</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06988726868277692</v>
+        <v>0.08728435048745466</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04167089192862175</v>
+        <v>0.04218885772900602</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2384207784.691864</v>
+        <v>2620266395.731501</v>
       </c>
       <c r="F73" t="n">
-        <v>0.109639612354295</v>
+        <v>0.07685180224260181</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04590114849820395</v>
+        <v>0.03936586340571695</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2787771793.576884</v>
+        <v>3574250137.595037</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1303846664473106</v>
+        <v>0.1782411638802849</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02923887148253303</v>
+        <v>0.02588841534372025</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2411078521.859132</v>
+        <v>1703428587.07443</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1571788895954186</v>
+        <v>0.1673070454054921</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02843381126500173</v>
+        <v>0.03075034587172812</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4755952693.697607</v>
+        <v>3531514949.458238</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1199992523079207</v>
+        <v>0.1194122115220849</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02855795827059148</v>
+        <v>0.02492303170038563</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1708520479.980981</v>
+        <v>1791885932.953071</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1135761895376076</v>
+        <v>0.1392785632065408</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0218713532677065</v>
+        <v>0.02921888966636813</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4302311957.627258</v>
+        <v>4123429261.741139</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1016764897184484</v>
+        <v>0.132929728500837</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05528416599457409</v>
+        <v>0.03822504244617569</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1641062732.283979</v>
+        <v>1343375138.328671</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1290193180946158</v>
+        <v>0.1324231787478553</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03799606948802321</v>
+        <v>0.03947511144083454</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4453073486.006398</v>
+        <v>5578843021.771777</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07689574422473576</v>
+        <v>0.07034282053939334</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03330350284496359</v>
+        <v>0.02824112154119917</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5037739981.596451</v>
+        <v>3820040293.875524</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1031543729062856</v>
+        <v>0.09860385368625647</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03255495778334132</v>
+        <v>0.0231794473861367</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4940392342.413639</v>
+        <v>3642232694.478519</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1479876277249956</v>
+        <v>0.1789738542489949</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02408031786264423</v>
+        <v>0.02847688315807355</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1665196729.749426</v>
+        <v>1638085806.879892</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1095671390338658</v>
+        <v>0.1239390006720779</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03955862856608597</v>
+        <v>0.03096547266375887</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1661481402.297057</v>
+        <v>1763189674.866815</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1140027975472137</v>
+        <v>0.08527885708669919</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04883330167026619</v>
+        <v>0.03958023379688421</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3420245553.660142</v>
+        <v>3268571700.91911</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1379509209423682</v>
+        <v>0.1466627630675738</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05390854372188131</v>
+        <v>0.05301783478865764</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2640369655.630517</v>
+        <v>1747864505.557833</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1333099827387036</v>
+        <v>0.107740002928205</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02407247003864934</v>
+        <v>0.02620256244599886</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1314646643.770707</v>
+        <v>1151331698.059863</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1387108462943415</v>
+        <v>0.1184718291867037</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0402236719676702</v>
+        <v>0.03657971102904996</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2353572297.400362</v>
+        <v>3226120410.458504</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1380731858495667</v>
+        <v>0.1413650714658286</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03014683252082664</v>
+        <v>0.03695711870908232</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2816805017.154701</v>
+        <v>3214432122.643106</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1255973873815992</v>
+        <v>0.1424385162295434</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02829344451689129</v>
+        <v>0.03260062624265603</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1487724583.750133</v>
+        <v>1520294307.843568</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0941105675909374</v>
+        <v>0.086896167006007</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05525959197233379</v>
+        <v>0.04496828347516253</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1975654068.949077</v>
+        <v>1814421580.635549</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1749994435339745</v>
+        <v>0.1258261399195164</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05568783105478851</v>
+        <v>0.05208591128563416</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2382243069.397964</v>
+        <v>2135989441.482865</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1054987221742027</v>
+        <v>0.1024683488003275</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0288357976341652</v>
+        <v>0.04084547207882861</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3593729464.289039</v>
+        <v>4965203668.833138</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1071072108828114</v>
+        <v>0.1108960266155666</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04285918241773361</v>
+        <v>0.04026949679833035</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2124302331.005215</v>
+        <v>2343358361.213888</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1231831136342846</v>
+        <v>0.1395585035882418</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03788149154488398</v>
+        <v>0.0399258948803543</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2763533603.626663</v>
+        <v>2531743395.672981</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09431125568851562</v>
+        <v>0.1152794100423357</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03480487033972451</v>
+        <v>0.03450901481226575</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2101167682.717232</v>
+        <v>1866187263.205751</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09164388655470362</v>
+        <v>0.1254158686915196</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03556303207790589</v>
+        <v>0.04378382935998604</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3509702269.421638</v>
+        <v>4300261183.689028</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1489130509234731</v>
+        <v>0.1189264449025334</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02712542319541037</v>
+        <v>0.01761728617159105</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3438951024.006274</v>
+        <v>2399860689.365453</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08853420110836339</v>
+        <v>0.113523083693929</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02749613006741379</v>
+        <v>0.02349665806646637</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3141646746.27126</v>
+        <v>2855481062.997588</v>
       </c>
       <c r="F99" t="n">
-        <v>0.111455837454643</v>
+        <v>0.1124980822546647</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02615023880192534</v>
+        <v>0.03408126284886808</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3994830733.545249</v>
+        <v>3639196229.973864</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1136094733130582</v>
+        <v>0.109065843670131</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01979413292492771</v>
+        <v>0.02350906844846736</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2800932638.692419</v>
+        <v>3078575121.022339</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1417082647224793</v>
+        <v>0.2135121540844321</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04289959663259313</v>
+        <v>0.05300188999425892</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_412.xlsx
+++ b/output/fit_clients/fit_round_412.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2035313806.028793</v>
+        <v>2059691091.431503</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0842067368417973</v>
+        <v>0.08070739913343096</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04226443319093149</v>
+        <v>0.02827109613981527</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2439703425.827643</v>
+        <v>2404639886.962003</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1434229487980228</v>
+        <v>0.1251573069076397</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03787893778526719</v>
+        <v>0.03592914587341968</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4108968810.351408</v>
+        <v>4045733389.421909</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1141505629145344</v>
+        <v>0.1195719265991353</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0377920289339289</v>
+        <v>0.02939703549223383</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>209</v>
+      </c>
+      <c r="J4" t="n">
+        <v>411</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42.77686871479247</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2890996124.091621</v>
+        <v>3882636232.243248</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08396108435380255</v>
+        <v>0.08364201711826491</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04556227810268012</v>
+        <v>0.03605362367473328</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>169</v>
+      </c>
+      <c r="J5" t="n">
+        <v>412</v>
+      </c>
+      <c r="K5" t="n">
+        <v>50.60224049073797</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2180074121.514256</v>
+        <v>2423261786.432783</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1169871818220199</v>
+        <v>0.1414939804357593</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04683238227654404</v>
+        <v>0.03688115556024738</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2053191050.451578</v>
+        <v>2153601884.357594</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06771595910235503</v>
+        <v>0.07268532774872141</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04522668619325582</v>
+        <v>0.03638803971930382</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2642056140.846754</v>
+        <v>3930079223.202654</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1778394581752408</v>
+        <v>0.2085603028573819</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02109998042769605</v>
+        <v>0.03083966561960791</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>112</v>
+      </c>
+      <c r="J8" t="n">
+        <v>412</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2314086956.330728</v>
+        <v>2267160369.458725</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1284933549065586</v>
+        <v>0.1992637516742781</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0256768121425051</v>
+        <v>0.03103148833565039</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4536946018.477434</v>
+        <v>3964746797.979688</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2109388891107156</v>
+        <v>0.1800653041599944</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05202005624223999</v>
+        <v>0.03928153574479241</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>330</v>
+      </c>
+      <c r="J10" t="n">
+        <v>412</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4102301063.486672</v>
+        <v>2937016465.811703</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1649589226342622</v>
+        <v>0.1581432040685132</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04324649917721508</v>
+        <v>0.04104142783842452</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>172</v>
+      </c>
+      <c r="J11" t="n">
+        <v>411</v>
+      </c>
+      <c r="K11" t="n">
+        <v>27.42501326267235</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2168649273.34112</v>
+        <v>2744921929.300096</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1449854102308814</v>
+        <v>0.1691763248810595</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05064358995982361</v>
+        <v>0.05123289491976724</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5034328208.185822</v>
+        <v>4568044006.035697</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06146764538219697</v>
+        <v>0.06831313897366455</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01922511916987056</v>
+        <v>0.02464785389060476</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>215</v>
+      </c>
+      <c r="J13" t="n">
+        <v>411</v>
+      </c>
+      <c r="K13" t="n">
+        <v>43.40187214576316</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2613873721.859056</v>
+        <v>3737036945.766898</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1844402255386954</v>
+        <v>0.1665353160808898</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03915941792633319</v>
+        <v>0.03146637346599437</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>412</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1690323847.696535</v>
+        <v>1521155038.015122</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1049259705053436</v>
+        <v>0.06959664420109729</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04852983728267346</v>
+        <v>0.0327218423268287</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2713227901.555752</v>
+        <v>2434875952.207758</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0865536200702917</v>
+        <v>0.1073370053547001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03698030269175587</v>
+        <v>0.03248984120220007</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4682906734.8311</v>
+        <v>3555506185.061299</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1452963082219374</v>
+        <v>0.1444890851658878</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04301695897028501</v>
+        <v>0.03664283364290011</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>199</v>
+      </c>
+      <c r="J17" t="n">
+        <v>411</v>
+      </c>
+      <c r="K17" t="n">
+        <v>33.46939361626932</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1071,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2688905950.571246</v>
+        <v>3524128468.191505</v>
       </c>
       <c r="F18" t="n">
-        <v>0.160049370370146</v>
+        <v>0.1851296021444058</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03160352275947372</v>
+        <v>0.03226858142807523</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>105</v>
+      </c>
+      <c r="J18" t="n">
+        <v>411</v>
+      </c>
+      <c r="K18" t="n">
+        <v>44.32662318284815</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>946881659.3678606</v>
+        <v>1241746935.176822</v>
       </c>
       <c r="F19" t="n">
-        <v>0.115566058885657</v>
+        <v>0.1510013973881211</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02395576521032093</v>
+        <v>0.0253911249375945</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1143,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2216884784.158748</v>
+        <v>1994768961.491969</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1081003348659597</v>
+        <v>0.1120916614843476</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03003323121659441</v>
+        <v>0.02379453136243714</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2354907854.440521</v>
+        <v>2485344028.410957</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09950747471602471</v>
+        <v>0.08209773936567713</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04357044828329276</v>
+        <v>0.04027956411314613</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3423556624.803558</v>
+        <v>3141241885.074325</v>
       </c>
       <c r="F22" t="n">
-        <v>0.099635001938461</v>
+        <v>0.09783786999032666</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04830229117621002</v>
+        <v>0.05403335519762886</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>114</v>
+      </c>
+      <c r="J22" t="n">
+        <v>407</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1152683315.826067</v>
+        <v>949971632.1681556</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1682660973057452</v>
+        <v>0.1536428826699199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03491941067626069</v>
+        <v>0.0522150932873469</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3564124693.377377</v>
+        <v>2613662101.817953</v>
       </c>
       <c r="F24" t="n">
-        <v>0.111780013097367</v>
+        <v>0.1166103729291775</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03551051289378905</v>
+        <v>0.03766439052021561</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>129</v>
+      </c>
+      <c r="J24" t="n">
+        <v>410</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>983215061.8277791</v>
+        <v>1381068508.777061</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1112185475557341</v>
+        <v>0.1212874485255863</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02656275088330892</v>
+        <v>0.02649453448177546</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1318652346.235396</v>
+        <v>1411363337.291379</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1055847883233212</v>
+        <v>0.07793513484837884</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03012553078404632</v>
+        <v>0.0333898097055662</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3178152960.443733</v>
+        <v>3103816024.929315</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1012603434891124</v>
+        <v>0.1400566265637535</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02293931095069984</v>
+        <v>0.01911702496636668</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>174</v>
+      </c>
+      <c r="J27" t="n">
+        <v>410</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3056073638.412621</v>
+        <v>3572862666.63729</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1121340201411492</v>
+        <v>0.1028653919424249</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04651564138025572</v>
+        <v>0.04223441349367884</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>101</v>
+      </c>
+      <c r="J28" t="n">
+        <v>412</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3708619189.697242</v>
+        <v>4060192455.170404</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1402639356652783</v>
+        <v>0.1487670679546033</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03465485290580299</v>
+        <v>0.02884642904916054</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>346</v>
+      </c>
+      <c r="J29" t="n">
+        <v>411</v>
+      </c>
+      <c r="K29" t="n">
+        <v>42.05342168246666</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1959486100.048761</v>
+        <v>2243451365.144056</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1124959012846095</v>
+        <v>0.127215421931567</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0287085826088066</v>
+        <v>0.03541646309145956</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>988463605.1124175</v>
+        <v>953271579.0871809</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06876206749292603</v>
+        <v>0.07649438916028281</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04443637383000205</v>
+        <v>0.05120569295597246</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1281479739.681571</v>
+        <v>1694722430.501387</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0944770186812886</v>
+        <v>0.1150434683110747</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03630935953463634</v>
+        <v>0.03522273421734057</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2235563221.439395</v>
+        <v>3015485108.768692</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1889465170103414</v>
+        <v>0.1273799361094573</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04129406118703589</v>
+        <v>0.03681775073274039</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1287456823.53254</v>
+        <v>1394275854.570557</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1060872767609855</v>
+        <v>0.08076040142268419</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02474830592627875</v>
+        <v>0.02629173130201962</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1153957959.356972</v>
+        <v>1291722802.865553</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09176668373826792</v>
+        <v>0.09088850649232247</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03998666804490287</v>
+        <v>0.0411750764969999</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3032765214.754144</v>
+        <v>2054399080.727859</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1383478323017665</v>
+        <v>0.1721904398337606</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02466726301216746</v>
+        <v>0.01915681883795339</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1958827845.038206</v>
+        <v>2590279411.152455</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1042389463979486</v>
+        <v>0.06850769499984762</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0418143133905562</v>
+        <v>0.02839890769676774</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1340526378.076441</v>
+        <v>2185248249.461311</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09292568314869179</v>
+        <v>0.08928761931131105</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03024250279361495</v>
+        <v>0.03384119038281335</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2018568474.624525</v>
+        <v>1851493943.239459</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1944774568067006</v>
+        <v>0.1554540843013331</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02020006147593282</v>
+        <v>0.02629994934218217</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1670768743.286651</v>
+        <v>1273985315.200644</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1405988348817663</v>
+        <v>0.1606945470203749</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0497647593915321</v>
+        <v>0.05774929772165525</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2511365565.859033</v>
+        <v>2003480663.367548</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1626135020209507</v>
+        <v>0.1516403729569017</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03830485759183224</v>
+        <v>0.03850008993784125</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4001340644.695728</v>
+        <v>3000778405.288397</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1048479585420779</v>
+        <v>0.08772421182839697</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02836555472937817</v>
+        <v>0.03622250925052461</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>177</v>
+      </c>
+      <c r="J42" t="n">
+        <v>409</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2971673177.518153</v>
+        <v>2317954304.16064</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1494757961254526</v>
+        <v>0.1683431147775997</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01732354905942762</v>
+        <v>0.02342287190321811</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1628748978.233298</v>
+        <v>2297948512.442937</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09563003842928224</v>
+        <v>0.06318207745614594</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0237935022103788</v>
+        <v>0.02438877871495481</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1976559229.38296</v>
+        <v>1687588385.638156</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1628917261250384</v>
+        <v>0.1684475102331835</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05372669494631009</v>
+        <v>0.04750135800612734</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5362705498.508606</v>
+        <v>5436421224.285284</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1428859478085572</v>
+        <v>0.1735816234937395</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05179542399413922</v>
+        <v>0.04392498711519208</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>247</v>
+      </c>
+      <c r="J46" t="n">
+        <v>412</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3809078951.94826</v>
+        <v>4024141800.671064</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1267661462499876</v>
+        <v>0.1293083261288896</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04780894375521188</v>
+        <v>0.0596326688106557</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>185</v>
+      </c>
+      <c r="J47" t="n">
+        <v>411</v>
+      </c>
+      <c r="K47" t="n">
+        <v>41.03070751307518</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3283452911.421936</v>
+        <v>4357620091.199732</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09576113036168461</v>
+        <v>0.108285826545765</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03396206346995014</v>
+        <v>0.03242839082391291</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>212</v>
+      </c>
+      <c r="J48" t="n">
+        <v>411</v>
+      </c>
+      <c r="K48" t="n">
+        <v>44.21717076919489</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1903473193.366766</v>
+        <v>1343737320.636042</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1786968901725711</v>
+        <v>0.1951224380550305</v>
       </c>
       <c r="G49" t="n">
-        <v>0.041449998023735</v>
+        <v>0.03467407044056615</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2609460704.490093</v>
+        <v>2768738557.599699</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1410791613407535</v>
+        <v>0.1417566650899752</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05143781170631968</v>
+        <v>0.04334575223482776</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>142</v>
+      </c>
+      <c r="J50" t="n">
+        <v>409</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1530540068.68894</v>
+        <v>1427302999.842196</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1298182758096225</v>
+        <v>0.1417292619312286</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04142851191369359</v>
+        <v>0.04260585055925506</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4013300541.083852</v>
+        <v>5033830748.70308</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1088222370933529</v>
+        <v>0.1043900941770361</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04421660908697247</v>
+        <v>0.05368113767498388</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>238</v>
+      </c>
+      <c r="J52" t="n">
+        <v>412</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3563808021.606972</v>
+        <v>2324065095.990481</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1499730121232683</v>
+        <v>0.1272453296712023</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03232318570860543</v>
+        <v>0.02632400398718706</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>59</v>
+      </c>
+      <c r="J53" t="n">
+        <v>410</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2339,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4906434674.054296</v>
+        <v>3410450811.488296</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1536566669613309</v>
+        <v>0.1285746313312729</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0531021573390645</v>
+        <v>0.04236857094225716</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>219</v>
+      </c>
+      <c r="J54" t="n">
+        <v>412</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4116603848.783525</v>
+        <v>4642712334.969808</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2081444255430143</v>
+        <v>0.1500453992465851</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02864291667764071</v>
+        <v>0.0249727177612337</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>203</v>
+      </c>
+      <c r="J55" t="n">
+        <v>412</v>
+      </c>
+      <c r="K55" t="n">
+        <v>45.69322659204261</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1746960599.077412</v>
+        <v>1813564632.271839</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1539436429552511</v>
+        <v>0.1247900216914647</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03688536437385549</v>
+        <v>0.0444370413946428</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4045289857.950002</v>
+        <v>4563968898.410228</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1439532882347732</v>
+        <v>0.1258897712213448</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02607074768046283</v>
+        <v>0.02043863070626851</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>178</v>
+      </c>
+      <c r="J57" t="n">
+        <v>412</v>
+      </c>
+      <c r="K57" t="n">
+        <v>45.94354256663119</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1529070632.44343</v>
+        <v>1630864247.579798</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1355679188545194</v>
+        <v>0.1721520448690797</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03534853920055329</v>
+        <v>0.0397088487026532</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4327233768.7305</v>
+        <v>3495667171.235786</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08352622078112867</v>
+        <v>0.1273979693930046</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04912353325329305</v>
+        <v>0.0403016940895724</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>201</v>
+      </c>
+      <c r="J59" t="n">
+        <v>412</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2787174045.877541</v>
+        <v>2461019356.263488</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1791306195511027</v>
+        <v>0.166375012605409</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0265014803715218</v>
+        <v>0.02745040927734671</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>76</v>
+      </c>
+      <c r="J60" t="n">
+        <v>410</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2168743696.476139</v>
+        <v>3393107153.784642</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1273728313788501</v>
+        <v>0.1333312075608435</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0261576619892216</v>
+        <v>0.02441955598235731</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1848206518.901327</v>
+        <v>1768975755.842411</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1308126727810071</v>
+        <v>0.1520825062836022</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03880019121990055</v>
+        <v>0.04091038673403859</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3744978364.558321</v>
+        <v>3675200130.739216</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07385554786701011</v>
+        <v>0.09313481221925013</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0352520103089663</v>
+        <v>0.0444401482916823</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>206</v>
+      </c>
+      <c r="J63" t="n">
+        <v>411</v>
+      </c>
+      <c r="K63" t="n">
+        <v>36.31949501741553</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3561359561.790432</v>
+        <v>5266699443.445847</v>
       </c>
       <c r="F64" t="n">
-        <v>0.142686315438247</v>
+        <v>0.1594280429551965</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02338362392324419</v>
+        <v>0.03172804682675938</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>206</v>
+      </c>
+      <c r="J64" t="n">
+        <v>412</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5651892735.911766</v>
+        <v>4387726085.245061</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1709749359192433</v>
+        <v>0.1232141129546835</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02076568932832659</v>
+        <v>0.02866534892617189</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>303</v>
+      </c>
+      <c r="J65" t="n">
+        <v>411</v>
+      </c>
+      <c r="K65" t="n">
+        <v>44.21238056202213</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5527977501.030177</v>
+        <v>5127582083.698984</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1048934179447723</v>
+        <v>0.1064651269319579</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04621937008473764</v>
+        <v>0.03697539687569584</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>203</v>
+      </c>
+      <c r="J66" t="n">
+        <v>412</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3504749950.492261</v>
+        <v>2388898034.483402</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09447807895756349</v>
+        <v>0.06642295600790322</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04788412808438714</v>
+        <v>0.03210059109895248</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4677869868.959167</v>
+        <v>4166611879.871986</v>
       </c>
       <c r="F68" t="n">
-        <v>0.120216998343881</v>
+        <v>0.1448168729900851</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04507622530508525</v>
+        <v>0.03930928081677348</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>225</v>
+      </c>
+      <c r="J68" t="n">
+        <v>411</v>
+      </c>
+      <c r="K68" t="n">
+        <v>40.63791865817946</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1610149835.814486</v>
+        <v>2211702376.741635</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1687639519258</v>
+        <v>0.1271134977964837</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04254311794632741</v>
+        <v>0.05075657572094498</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3507779083.850641</v>
+        <v>3519139701.93904</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07085444593545402</v>
+        <v>0.08084098910334238</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03650891584341746</v>
+        <v>0.04701953719139968</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>412</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3687495436.527953</v>
+        <v>4613325239.513822</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1273049355919974</v>
+        <v>0.1358141926447737</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03016909995869589</v>
+        <v>0.02457270434501528</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>290</v>
+      </c>
+      <c r="J71" t="n">
+        <v>411</v>
+      </c>
+      <c r="K71" t="n">
+        <v>43.35794021865716</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1376062748.965022</v>
+        <v>1899860474.591755</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08728435048745466</v>
+        <v>0.06671177528154923</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04218885772900602</v>
+        <v>0.03596016164204902</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2620266395.731501</v>
+        <v>2413663186.985956</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07685180224260181</v>
+        <v>0.07094582387399696</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03936586340571695</v>
+        <v>0.0502146888462373</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3051,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3574250137.595037</v>
+        <v>2529026659.11579</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1782411638802849</v>
+        <v>0.1175406299373934</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02588841534372025</v>
+        <v>0.02680524534624153</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>117</v>
+      </c>
+      <c r="J74" t="n">
+        <v>411</v>
+      </c>
+      <c r="K74" t="n">
+        <v>24.01213568444496</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1703428587.07443</v>
+        <v>2391599641.072379</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1673070454054921</v>
+        <v>0.1602061915994675</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03075034587172812</v>
+        <v>0.03741639420446632</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3531514949.458238</v>
+        <v>3480751265.46869</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1194122115220849</v>
+        <v>0.1221704790975195</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02492303170038563</v>
+        <v>0.0220065996126627</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>195</v>
+      </c>
+      <c r="J76" t="n">
+        <v>412</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1791885932.953071</v>
+        <v>1802338675.385617</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1392785632065408</v>
+        <v>0.1172305017224382</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02921888966636813</v>
+        <v>0.02268989490905095</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4123429261.741139</v>
+        <v>2951080545.018204</v>
       </c>
       <c r="F78" t="n">
-        <v>0.132929728500837</v>
+        <v>0.08698603159703745</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03822504244617569</v>
+        <v>0.05284563610559154</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>206</v>
+      </c>
+      <c r="J78" t="n">
+        <v>411</v>
+      </c>
+      <c r="K78" t="n">
+        <v>23.8251597281771</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1343375138.328671</v>
+        <v>1421219043.059218</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1324231787478553</v>
+        <v>0.1368457935446454</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03947511144083454</v>
+        <v>0.02500953459121045</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5578843021.771777</v>
+        <v>5386053535.014016</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07034282053939334</v>
+        <v>0.1109726915675251</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02824112154119917</v>
+        <v>0.02542540439172612</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>201</v>
+      </c>
+      <c r="J80" t="n">
+        <v>412</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3820040293.875524</v>
+        <v>3279084614.501362</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09860385368625647</v>
+        <v>0.1366723969828576</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0231794473861367</v>
+        <v>0.02529560110632516</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>191</v>
+      </c>
+      <c r="J81" t="n">
+        <v>410</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3642232694.478519</v>
+        <v>3868069129.665711</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1789738542489949</v>
+        <v>0.1397958777140278</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02847688315807355</v>
+        <v>0.0200990193347352</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>280</v>
+      </c>
+      <c r="J82" t="n">
+        <v>412</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1638085806.879892</v>
+        <v>2008423509.105049</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1239390006720779</v>
+        <v>0.1444298540794783</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03096547266375887</v>
+        <v>0.03083501942114848</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1763189674.866815</v>
+        <v>2269369041.898616</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08527885708669919</v>
+        <v>0.08495337014153499</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03958023379688421</v>
+        <v>0.05123757039811867</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3268571700.91911</v>
+        <v>3151420435.31104</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1466627630675738</v>
+        <v>0.1458556197635741</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05301783478865764</v>
+        <v>0.03743997795312885</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1747864505.557833</v>
+        <v>2196751895.069225</v>
       </c>
       <c r="F86" t="n">
-        <v>0.107740002928205</v>
+        <v>0.1732186615134598</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02620256244599886</v>
+        <v>0.02015353803973397</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1151331698.059863</v>
+        <v>1209654047.545405</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1184718291867037</v>
+        <v>0.1340239553230937</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03657971102904996</v>
+        <v>0.027321346492446</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3226120410.458504</v>
+        <v>3334423748.397842</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1413650714658286</v>
+        <v>0.1156810209392713</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03695711870908232</v>
+        <v>0.03933109906491178</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>53</v>
+      </c>
+      <c r="J88" t="n">
+        <v>409</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3214432122.643106</v>
+        <v>3092861647.284357</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1424385162295434</v>
+        <v>0.1044970363547201</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03260062624265603</v>
+        <v>0.04008823242243567</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1520294307.843568</v>
+        <v>1840218048.02036</v>
       </c>
       <c r="F90" t="n">
-        <v>0.086896167006007</v>
+        <v>0.09492884907739903</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04496828347516253</v>
+        <v>0.05648792917052047</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1814421580.635549</v>
+        <v>2058290429.299737</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1258261399195164</v>
+        <v>0.1374326324917258</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05208591128563416</v>
+        <v>0.06066615818285044</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2135989441.482865</v>
+        <v>2716764180.015168</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1024683488003275</v>
+        <v>0.08154786564165896</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04084547207882861</v>
+        <v>0.0307283640642255</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4965203668.833138</v>
+        <v>3305384170.689184</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1108960266155666</v>
+        <v>0.125963936516064</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04026949679833035</v>
+        <v>0.04860272260232117</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>197</v>
+      </c>
+      <c r="J93" t="n">
+        <v>411</v>
+      </c>
+      <c r="K93" t="n">
+        <v>30.41850621317921</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2343358361.213888</v>
+        <v>1762156644.346847</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1395585035882418</v>
+        <v>0.1544089918229111</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0399258948803543</v>
+        <v>0.03646071322652899</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2531743395.672981</v>
+        <v>2245419203.733016</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1152794100423357</v>
+        <v>0.1217882228843151</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03450901481226575</v>
+        <v>0.05051238493467659</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1866187263.205751</v>
+        <v>1568323876.51287</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1254158686915196</v>
+        <v>0.1126213074687587</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04378382935998604</v>
+        <v>0.04434239657892351</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4300261183.689028</v>
+        <v>4329155184.774375</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1189264449025334</v>
+        <v>0.1332093172135367</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01761728617159105</v>
+        <v>0.02734349886512862</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>215</v>
+      </c>
+      <c r="J97" t="n">
+        <v>412</v>
+      </c>
+      <c r="K97" t="n">
+        <v>45.67437920356834</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2399860689.365453</v>
+        <v>2889675401.658249</v>
       </c>
       <c r="F98" t="n">
-        <v>0.113523083693929</v>
+        <v>0.07834344347492118</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02349665806646637</v>
+        <v>0.03124926083896726</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>106</v>
+      </c>
+      <c r="J98" t="n">
+        <v>404</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2855481062.997588</v>
+        <v>2107873911.422008</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1124980822546647</v>
+        <v>0.1428884985047951</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03408126284886808</v>
+        <v>0.03064630663579774</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3639196229.973864</v>
+        <v>4542738561.731777</v>
       </c>
       <c r="F100" t="n">
-        <v>0.109065843670131</v>
+        <v>0.1725744056386913</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02350906844846736</v>
+        <v>0.01930458447738274</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>192</v>
+      </c>
+      <c r="J100" t="n">
+        <v>412</v>
+      </c>
+      <c r="K100" t="n">
+        <v>44.64621132166714</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3078575121.022339</v>
+        <v>2453078026.818176</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2135121540844321</v>
+        <v>0.1763648570890456</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05300188999425892</v>
+        <v>0.05240883476286128</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
